--- a/vérifMEF.xlsx
+++ b/vérifMEF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e1e23c5f9e1b181/Documents/Project code/ourocode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_AD4D9D64A577C15A4A541881D09E4C185ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D185E47-684D-43A8-864B-1B5C201B6B8F}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_AD4D9D64A577C15A4A541881D09E4C185ADEDD8B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74490F01-9A31-4AB8-9D16-747070E13201}"/>
   <bookViews>
-    <workbookView xWindow="50595" yWindow="6375" windowWidth="10275" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44265" yWindow="1590" windowWidth="9165" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -154,6 +154,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,7 +426,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>20000000000</v>
+        <v>30000000</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -445,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="F1">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -456,8 +460,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>F1*F2</f>
-        <v>0.15</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -466,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -477,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -488,8 +491,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <f>(F1*F2^3)/12</f>
-        <v>1.1249999999999999E-3</v>
+        <v>1000</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -500,8 +502,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>(F2*F1^3)/12</f>
-        <v>3.1249999999999997E-3</v>
+        <v>1000</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -513,7 +514,7 @@
       </c>
       <c r="B7">
         <f>B1*B2/B3</f>
-        <v>600000000</v>
+        <v>6250000</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,7 +523,7 @@
       </c>
       <c r="B9">
         <f>(12*$B$1*$B$5)/($B$3^3)</f>
-        <v>5999999.9999999991</v>
+        <v>3255.2083333333335</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -531,7 +532,7 @@
       </c>
       <c r="B10">
         <f>(12*$B$1*$B$4)/($B$3^3)</f>
-        <v>2160000</v>
+        <v>3255.2083333333335</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -540,7 +541,7 @@
       </c>
       <c r="B12">
         <f>(6*$B$1*$B$5)/($B$3^2)</f>
-        <v>14999999.999999998</v>
+        <v>781250</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,7 +550,7 @@
       </c>
       <c r="B13">
         <f>(6*$B$1*$B$4)/($B$3^2)</f>
-        <v>5400000</v>
+        <v>781250</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -558,7 +559,7 @@
       </c>
       <c r="B15">
         <f>(4*$B$1*$B$5)/($B$3)</f>
-        <v>49999999.999999993</v>
+        <v>250000000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,7 +568,7 @@
       </c>
       <c r="B16">
         <f>(4*$B$1*$B$4)/($B$3)</f>
-        <v>18000000</v>
+        <v>250000000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +577,7 @@
       </c>
       <c r="B18">
         <f>(2*$B$1*$B$5)/($B$3)</f>
-        <v>24999999.999999996</v>
+        <v>125000000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +586,7 @@
       </c>
       <c r="B19">
         <f>(2*$B$1*$B$4)/($B$3)</f>
-        <v>9000000</v>
+        <v>125000000</v>
       </c>
     </row>
   </sheetData>
